--- a/dtpu_configurations/only_integer16/30mhz/mxu_18x18/power.xlsx
+++ b/dtpu_configurations/only_integer16/30mhz/mxu_18x18/power.xlsx
@@ -175,22 +175,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.018054837360978127</v>
+        <v>0.01901121251285076</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.007995878346264362</v>
+        <v>0.010217825882136822</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.005035296082496643</v>
+        <v>0.005833333823829889</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.0027553648687899113</v>
+        <v>0.0028358735144138336</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>2.159892610507086E-4</v>
+        <v>3.4971596323885024E-4</v>
       </c>
       <c r="G2" t="n" s="4">
-        <v>4.7097154310904443E-4</v>
+        <v>4.6864504110999405E-4</v>
       </c>
       <c r="H2" t="n" s="4">
         <v>5.878788651898503E-4</v>
@@ -199,10 +199,10 @@
         <v>1.2575732469558716</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.12730884552001953</v>
+        <v>0.12734293937683105</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.4200023412704468</v>
+        <v>1.424224615097046</v>
       </c>
     </row>
   </sheetData>
